--- a/target/classes/template/Mau-danh-sach-nguoi-dung.xlsx
+++ b/target/classes/template/Mau-danh-sach-nguoi-dung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FALL 2023\Capstone\source_code\vms-server\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E267E0-0EDE-4153-BA2B-A4E38B748B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B37BA7-2720-4597-8D2A-C7F4672D45E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
